--- a/BackTest/2019-11-18 BackTest IOST.xlsx
+++ b/BackTest/2019-11-18 BackTest IOST.xlsx
@@ -5771,13 +5771,17 @@
         <v>8.30999999999999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="K154" t="n">
+        <v>8.27</v>
+      </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
@@ -5812,8 +5816,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5841,14 +5851,22 @@
         <v>8.349999999999991</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="K156" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5876,13 +5894,17 @@
         <v>8.379999999999992</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="K157" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
@@ -5911,14 +5933,22 @@
         <v>8.40499999999999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="K158" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5976,22 @@
         <v>8.374999999999989</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="K159" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6025,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6066,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6051,14 +6101,22 @@
         <v>8.29999999999999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="K162" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6191,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +6273,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6314,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6396,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +6478,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +6519,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6642,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +6683,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6724,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6806,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +6847,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +6888,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6929,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +6970,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +7011,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6856,18 +7046,18 @@
         <v>8.369999999999989</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -6897,15 +7087,15 @@
         <v>8.454999999999989</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6938,15 +7128,15 @@
         <v>8.384999999999991</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,7 +7175,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7024,7 +7216,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,7 +7257,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,7 +7298,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7135,15 +7333,15 @@
         <v>8.159999999999993</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7176,15 +7374,15 @@
         <v>8.144999999999994</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,15 +7415,15 @@
         <v>8.119999999999994</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,15 +7456,15 @@
         <v>8.094999999999992</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7299,15 +7497,15 @@
         <v>8.059999999999992</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,15 +7538,15 @@
         <v>8.039999999999992</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7381,15 +7579,15 @@
         <v>8.039999999999992</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7422,15 +7620,15 @@
         <v>8.034999999999993</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7463,15 +7661,15 @@
         <v>8.029999999999994</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7504,15 +7702,15 @@
         <v>8.009999999999994</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7545,15 +7743,15 @@
         <v>7.954999999999996</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,15 +7784,15 @@
         <v>7.929999999999995</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7627,15 +7825,15 @@
         <v>7.944999999999996</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,15 +7866,15 @@
         <v>7.974999999999996</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,15 +7907,15 @@
         <v>7.964999999999996</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7750,15 +7948,15 @@
         <v>8.079999999999997</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7791,15 +7989,15 @@
         <v>8.184999999999997</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7832,15 +8030,15 @@
         <v>8.034999999999997</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7873,15 +8071,15 @@
         <v>8.069999999999997</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7914,15 +8112,15 @@
         <v>8.189999999999998</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7955,15 +8153,15 @@
         <v>8.269999999999996</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,15 +8194,15 @@
         <v>8.369999999999994</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8037,15 +8235,15 @@
         <v>8.364999999999995</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8078,15 +8276,15 @@
         <v>8.359999999999996</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8119,15 +8317,15 @@
         <v>8.299999999999997</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8160,15 +8358,15 @@
         <v>8.194999999999997</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8201,15 +8399,15 @@
         <v>8.219999999999995</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8242,15 +8440,15 @@
         <v>8.289999999999996</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8283,15 +8481,15 @@
         <v>8.279999999999996</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8324,15 +8522,15 @@
         <v>8.269999999999996</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,15 +8563,15 @@
         <v>8.164999999999997</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,15 +8604,15 @@
         <v>8.159999999999998</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8447,15 +8645,15 @@
         <v>8.259999999999998</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8488,15 +8686,15 @@
         <v>8.259999999999998</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,15 +8727,15 @@
         <v>8.259999999999998</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,15 +8768,15 @@
         <v>8.254999999999999</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8611,15 +8809,15 @@
         <v>8.245000000000001</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8652,15 +8850,15 @@
         <v>8.165000000000001</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8693,15 +8891,15 @@
         <v>7.980000000000001</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8734,15 +8932,15 @@
         <v>7.9</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,15 +8973,15 @@
         <v>8.01</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8816,15 +9014,15 @@
         <v>8.059999999999999</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,15 +9055,15 @@
         <v>8.029999999999999</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8898,15 +9096,15 @@
         <v>8.099999999999998</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8939,15 +9137,15 @@
         <v>8.169999999999998</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,15 +9178,15 @@
         <v>8.154999999999998</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9021,15 +9219,15 @@
         <v>8.129999999999995</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,15 +9260,15 @@
         <v>8.099999999999994</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9103,15 +9301,15 @@
         <v>7.999999999999996</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9144,15 +9342,15 @@
         <v>7.914999999999995</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9185,15 +9383,15 @@
         <v>7.984999999999995</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,15 +9424,15 @@
         <v>7.989999999999995</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9267,15 +9465,15 @@
         <v>7.914999999999995</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,15 +9506,15 @@
         <v>7.864999999999996</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9349,15 +9547,15 @@
         <v>7.934999999999997</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,15 +9588,15 @@
         <v>8.049999999999997</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9431,15 +9629,15 @@
         <v>7.969999999999997</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9472,15 +9670,15 @@
         <v>7.889999999999997</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9513,15 +9711,15 @@
         <v>7.894999999999996</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9554,15 +9752,15 @@
         <v>7.949999999999996</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>8</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9595,15 +9793,15 @@
         <v>8.024999999999995</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9636,15 +9834,15 @@
         <v>8.084999999999994</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9677,15 +9875,15 @@
         <v>8.084999999999994</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,15 +9916,15 @@
         <v>8.054999999999996</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9759,15 +9957,15 @@
         <v>8.029999999999996</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9800,15 +9998,15 @@
         <v>8.024999999999995</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>8</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9841,15 +10039,15 @@
         <v>8.024999999999995</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>8</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9882,15 +10080,15 @@
         <v>7.999999999999995</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>8</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9923,15 +10121,15 @@
         <v>7.999999999999995</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>8</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9964,15 +10162,15 @@
         <v>7.999999999999995</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>8</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10005,15 +10203,15 @@
         <v>8.029999999999994</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10046,15 +10244,15 @@
         <v>8.169999999999995</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10087,15 +10285,15 @@
         <v>8.329999999999995</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10128,15 +10326,15 @@
         <v>8.474999999999994</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10169,15 +10367,15 @@
         <v>8.644999999999992</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10210,15 +10408,15 @@
         <v>8.844999999999992</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10251,15 +10449,15 @@
         <v>8.934999999999992</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10292,15 +10490,15 @@
         <v>8.864999999999991</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10339,7 +10537,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10378,7 +10578,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10417,7 +10619,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10456,7 +10660,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10495,7 +10701,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10534,7 +10742,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,7 +10783,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10612,7 +10824,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10651,7 +10865,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10690,7 +10906,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10729,7 +10947,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10768,7 +10988,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10807,7 +11029,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,7 +11070,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10885,7 +11111,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,7 +11152,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10963,7 +11193,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11002,7 +11234,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11041,7 +11275,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11080,7 +11316,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,7 +11357,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,7 +11398,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11197,7 +11439,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11236,7 +11480,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11275,7 +11521,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11314,7 +11562,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11353,7 +11603,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11392,7 +11644,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11431,7 +11685,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,7 +11726,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11509,7 +11767,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11548,7 +11808,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11587,7 +11849,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11626,7 +11890,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11665,7 +11931,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11701,16 +11969,20 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M305" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11738,13 +12010,19 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M306" t="n">
-        <v>1</v>
+        <v>1.546312649164678</v>
       </c>
     </row>
     <row r="307">
@@ -11773,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
@@ -11843,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -11878,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
@@ -11913,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
@@ -11948,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
@@ -11983,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
@@ -13240,14 +13518,20 @@
         <v>11.44999999999999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13275,14 +13559,20 @@
         <v>11.49999999999999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13310,14 +13600,20 @@
         <v>11.29999999999999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13345,14 +13641,20 @@
         <v>11.14999999999999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13380,14 +13682,20 @@
         <v>11.09999999999999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>11.2</v>
+      </c>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13422,7 +13730,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13769,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13492,7 +13808,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13527,7 +13847,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13562,7 +13886,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13597,7 +13925,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13625,14 +13957,20 @@
         <v>10.84999999999999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13660,14 +13998,20 @@
         <v>10.69999999999999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13695,14 +14039,20 @@
         <v>10.59999999999999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13730,14 +14080,20 @@
         <v>10.54999999999999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13765,14 +14121,20 @@
         <v>10.44999999999999</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>10.5</v>
+      </c>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13800,14 +14162,20 @@
         <v>10.44999999999999</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>10.4</v>
+      </c>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13835,14 +14203,20 @@
         <v>10.64999999999999</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>10.5</v>
+      </c>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13870,14 +14244,20 @@
         <v>10.69999999999999</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13905,14 +14285,20 @@
         <v>10.69999999999999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13940,14 +14326,20 @@
         <v>10.69999999999999</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>10.8</v>
+      </c>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13975,14 +14367,20 @@
         <v>10.59999999999999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14010,14 +14408,20 @@
         <v>10.59999999999998</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14045,14 +14449,20 @@
         <v>10.59999999999998</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14080,14 +14490,20 @@
         <v>10.64999999999998</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14115,14 +14531,20 @@
         <v>10.64999999999998</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14150,14 +14572,20 @@
         <v>10.64999999999998</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>10.6</v>
+      </c>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14185,14 +14613,20 @@
         <v>10.69999999999999</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14220,14 +14654,20 @@
         <v>10.84999999999999</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14255,14 +14695,20 @@
         <v>10.94999999999999</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>11</v>
+      </c>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14297,7 +14743,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14332,7 +14782,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14367,7 +14821,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14402,7 +14860,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14437,7 +14899,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14472,7 +14938,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14507,7 +14977,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14542,7 +15016,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14577,7 +15055,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15094,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14647,7 +15133,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14682,7 +15172,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14717,7 +15211,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14752,7 +15250,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14787,7 +15289,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14822,7 +15328,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14857,7 +15367,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14892,7 +15406,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14927,7 +15445,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14962,7 +15484,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14997,7 +15523,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15032,7 +15562,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15067,7 +15601,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15102,7 +15640,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15137,7 +15679,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15172,7 +15718,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15207,7 +15757,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15242,7 +15796,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15277,7 +15835,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15312,7 +15874,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15347,7 +15913,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15382,7 +15952,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15417,7 +15991,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15452,7 +16030,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15487,7 +16069,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15522,7 +16108,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15557,7 +16147,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15592,7 +16186,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15627,7 +16225,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15662,7 +16264,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15697,7 +16303,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15732,7 +16342,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16381,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15802,7 +16420,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15837,7 +16459,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15872,7 +16498,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15907,7 +16537,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15942,7 +16576,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15977,7 +16615,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16012,7 +16654,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16047,7 +16693,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16082,7 +16732,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16117,7 +16771,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16152,7 +16810,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +16849,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16222,7 +16888,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16257,7 +16927,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16292,7 +16966,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16327,7 +17005,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16362,7 +17044,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16397,7 +17083,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16432,7 +17122,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16467,7 +17161,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16502,7 +17200,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16537,7 +17239,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16572,7 +17278,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16607,7 +17317,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16642,7 +17356,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16677,7 +17395,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16712,7 +17434,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16747,7 +17473,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16782,7 +17512,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16817,7 +17551,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16852,7 +17590,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16887,7 +17629,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17668,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16957,7 +17707,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16992,7 +17746,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17027,7 +17785,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17062,7 +17824,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17097,7 +17863,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17132,7 +17902,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17167,7 +17941,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17202,7 +17980,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17237,7 +18019,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17272,7 +18058,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17307,7 +18097,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17342,7 +18136,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17377,7 +18175,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17412,7 +18214,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17447,7 +18253,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17482,7 +18292,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17517,7 +18331,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17552,7 +18370,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17587,7 +18409,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17622,7 +18448,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17657,7 +18487,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17692,7 +18526,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17727,7 +18565,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17762,7 +18604,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17797,7 +18643,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17832,7 +18682,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17867,7 +18721,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17902,7 +18760,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17937,7 +18799,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17972,7 +18838,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18007,7 +18877,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18042,7 +18916,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18955,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18112,7 +18994,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18147,7 +19033,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18182,7 +19072,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18217,7 +19111,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18252,7 +19150,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18287,7 +19189,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18322,7 +19228,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18357,7 +19267,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18392,7 +19306,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18427,7 +19345,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18462,7 +19384,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18497,7 +19423,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18532,7 +19462,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18560,14 +19494,20 @@
         <v>11.54999999999998</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18595,14 +19535,20 @@
         <v>11.49999999999998</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18630,14 +19576,20 @@
         <v>11.44999999999997</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18665,14 +19617,20 @@
         <v>11.44999999999997</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18707,7 +19665,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18735,14 +19697,20 @@
         <v>11.24999999999998</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>11.2</v>
+      </c>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18770,14 +19738,20 @@
         <v>11.34999999999997</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18805,14 +19779,20 @@
         <v>11.34999999999997</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18840,14 +19820,20 @@
         <v>11.29999999999998</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18882,7 +19868,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18917,7 +19907,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18952,7 +19946,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18987,7 +19985,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19022,7 +20024,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19057,7 +20063,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19092,7 +20102,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19120,14 +20134,20 @@
         <v>11.44999999999998</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19155,14 +20175,20 @@
         <v>11.49999999999998</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19197,7 +20223,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +20262,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19267,7 +20301,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19302,7 +20340,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19337,7 +20379,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19372,7 +20418,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19407,7 +20457,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19442,7 +20496,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19477,7 +20535,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19512,7 +20574,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19547,7 +20613,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19582,7 +20652,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19617,7 +20691,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19652,7 +20730,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19687,7 +20769,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19722,7 +20808,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19757,7 +20847,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19792,7 +20886,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19827,7 +20925,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19862,7 +20964,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19897,7 +21003,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19932,7 +21042,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19967,7 +21081,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20002,7 +21120,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20037,7 +21159,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20072,7 +21198,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20107,7 +21237,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20142,7 +21276,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20177,7 +21315,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20212,7 +21354,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20247,7 +21393,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20282,7 +21432,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20317,7 +21471,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20352,7 +21510,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +21549,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20422,7 +21588,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20457,7 +21627,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20492,7 +21666,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20527,7 +21705,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20562,7 +21744,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20597,7 +21783,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20632,7 +21822,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20667,7 +21861,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20702,7 +21900,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20737,7 +21939,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20772,7 +21978,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20807,7 +22017,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20842,7 +22056,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20877,7 +22095,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20912,7 +22134,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20940,14 +22166,20 @@
         <v>10.94999999999998</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>11</v>
+      </c>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20975,14 +22207,20 @@
         <v>10.94999999999998</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21010,14 +22248,20 @@
         <v>10.99999999999998</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>11</v>
+      </c>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21045,14 +22289,20 @@
         <v>10.99999999999998</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>11</v>
+      </c>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21087,7 +22337,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21122,7 +22376,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21157,7 +22415,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21192,7 +22454,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21227,7 +22493,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21262,7 +22532,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21297,7 +22571,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21332,7 +22610,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21367,7 +22649,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21402,7 +22688,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21437,7 +22727,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21472,7 +22766,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21507,7 +22805,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +22844,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21577,7 +22883,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21612,7 +22922,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21647,7 +22961,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21682,7 +23000,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21717,7 +23039,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21752,7 +23078,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21787,7 +23117,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21822,7 +23156,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21857,7 +23195,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21892,7 +23234,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21927,7 +23273,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21962,7 +23312,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21997,7 +23351,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22032,7 +23390,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22067,7 +23429,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22102,7 +23468,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22137,7 +23507,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22172,7 +23546,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22207,7 +23585,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22242,7 +23624,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22277,7 +23663,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22312,7 +23702,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22347,7 +23741,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22382,7 +23780,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22417,7 +23819,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22452,7 +23858,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22487,7 +23897,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22522,7 +23936,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22557,7 +23975,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22592,7 +24014,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22627,7 +24053,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22662,7 +24092,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +24131,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22732,7 +24170,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22767,7 +24209,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22802,7 +24248,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22837,7 +24287,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22872,7 +24326,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22907,7 +24365,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22942,7 +24404,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22977,7 +24443,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23012,7 +24482,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23047,7 +24521,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23082,7 +24560,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23117,7 +24599,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23152,7 +24638,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23187,7 +24677,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23222,7 +24716,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23257,7 +24755,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23292,7 +24794,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23327,7 +24833,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23362,7 +24872,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23397,7 +24911,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23432,7 +24950,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23467,7 +24989,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23502,7 +25028,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23537,7 +25067,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23572,7 +25106,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23607,7 +25145,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23642,7 +25184,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23677,7 +25223,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23712,7 +25262,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23747,7 +25301,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23782,7 +25340,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23817,7 +25379,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +25418,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23887,7 +25457,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23922,7 +25496,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23957,7 +25535,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23992,7 +25574,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24027,7 +25613,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24062,7 +25652,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24097,7 +25691,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24132,7 +25730,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24167,7 +25769,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24202,7 +25808,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24237,7 +25847,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24272,7 +25886,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24307,7 +25925,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24342,7 +25964,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24377,7 +26003,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24412,7 +26042,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24447,7 +26081,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24482,7 +26120,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24517,7 +26159,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24552,7 +26198,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24587,7 +26237,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24622,7 +26276,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24657,7 +26315,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24692,7 +26354,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24727,7 +26393,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24762,7 +26432,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24797,7 +26471,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24832,7 +26510,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24867,7 +26549,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24902,7 +26588,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24937,7 +26627,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24972,7 +26666,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25007,7 +26705,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25042,7 +26744,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25077,7 +26783,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25112,7 +26822,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25147,7 +26861,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25182,7 +26900,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25217,7 +26939,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25252,7 +26978,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25287,7 +27017,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25322,7 +27056,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25357,7 +27095,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25392,7 +27134,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25427,7 +27173,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25462,7 +27212,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25497,7 +27251,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25532,7 +27290,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25567,7 +27329,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25602,7 +27368,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25637,7 +27407,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25672,7 +27446,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25707,7 +27485,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25742,7 +27524,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25777,7 +27563,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25812,7 +27602,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-18 BackTest IOST.xlsx
+++ b/BackTest/2019-11-18 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7711,11 +7711,17 @@
         <v>-6978832.204527177</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>8.279999999999999</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7750,17 @@
         <v>-6978832.204527177</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7789,17 @@
         <v>-6978832.204527177</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7828,17 @@
         <v>-6978700.872627177</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7867,17 @@
         <v>-6978700.872627177</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>8.359999999999999</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7906,17 @@
         <v>-6938700.872627177</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>8.359999999999999</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7945,17 @@
         <v>-6993700.872627177</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>8.529999999999999</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +7988,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8025,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8062,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8099,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8136,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8169,17 @@
         <v>-7098732.163627177</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>8.27</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8208,17 @@
         <v>-7114532.163627177</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>8.460000000000001</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8251,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8284,17 @@
         <v>-7126385.388227178</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>8.289999999999999</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8323,17 @@
         <v>-7137870.662827178</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>8.279999999999999</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8362,17 @@
         <v>-7137870.662827178</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>8.27</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8401,17 @@
         <v>-7144593.662827178</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>8.27</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8440,17 @@
         <v>-7140931.662827178</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>8.25</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8479,17 @@
         <v>-7181040.872927178</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>8.43</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8518,17 @@
         <v>-7181040.872927178</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>8.23</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8557,17 @@
         <v>-7116910.852527178</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>8.23</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8596,17 @@
         <v>-7117240.852527178</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>8.51</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8635,17 @@
         <v>-7117438.852527178</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>8.4</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8674,17 @@
         <v>-7117504.852527178</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8713,17 @@
         <v>-7117307.852527178</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>8.359999999999999</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8752,17 @@
         <v>-7346006.217727178</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>8.390000000000001</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8791,17 @@
         <v>-7326006.217727178</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>8.15</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8830,17 @@
         <v>-7326006.217727178</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>8.16</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8869,17 @@
         <v>-7883437.170527178</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>8.16</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8908,17 @@
         <v>-7898662.373727178</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>8.130000000000001</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8947,17 @@
         <v>-7905438.825927178</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>8.109999999999999</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8986,17 @@
         <v>-8109022.197227178</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>8.08</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9025,17 @@
         <v>-8109022.197227178</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,15 +9064,17 @@
         <v>-8109022.197227178</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="J257" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,17 +9103,15 @@
         <v>-8109088.197227178</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="J258" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -8944,17 +9142,15 @@
         <v>-8109088.197227178</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="J259" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -8985,17 +9181,15 @@
         <v>-8280390.261827178</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="J260" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L260" t="n">
@@ -9026,14 +9220,12 @@
         <v>-8469692.300127178</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>7.99</v>
       </c>
-      <c r="J261" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,14 +9259,12 @@
         <v>-8353270.493827178</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>7.92</v>
       </c>
-      <c r="J262" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9108,14 +9298,12 @@
         <v>-8247936.478527178</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>7.94</v>
       </c>
-      <c r="J263" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9149,14 +9337,12 @@
         <v>-8203995.478527178</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>7.95</v>
       </c>
-      <c r="J264" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,14 +9376,12 @@
         <v>-8211459.229227178</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>8</v>
       </c>
-      <c r="J265" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9231,14 +9415,12 @@
         <v>-8209849.229227178</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>7.93</v>
       </c>
-      <c r="J266" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9272,14 +9454,12 @@
         <v>-8212359.385827178</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>8.23</v>
       </c>
-      <c r="J267" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9313,14 +9493,12 @@
         <v>-8212622.385827178</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>8.140000000000001</v>
       </c>
-      <c r="J268" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9354,14 +9532,12 @@
         <v>-8083354.248327178</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>7.93</v>
       </c>
-      <c r="J269" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9395,14 +9571,12 @@
         <v>-8083450.248327178</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>8.210000000000001</v>
       </c>
-      <c r="J270" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,14 +9610,12 @@
         <v>-8073354.248327178</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>8.17</v>
       </c>
-      <c r="J271" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9477,14 +9649,12 @@
         <v>-8073354.248327178</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="J272" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9518,14 +9688,12 @@
         <v>-8166316.192527178</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="J273" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9559,14 +9727,12 @@
         <v>-8166316.192527178</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="J274" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9600,14 +9766,12 @@
         <v>-8396112.290827177</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="J275" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9641,14 +9805,12 @@
         <v>-8398588.025327178</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>8.24</v>
       </c>
-      <c r="J276" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9682,14 +9844,12 @@
         <v>-8398527.025327178</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>8.15</v>
       </c>
-      <c r="J277" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9723,14 +9883,12 @@
         <v>-8398527.025327178</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>8.289999999999999</v>
       </c>
-      <c r="J278" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9764,12 +9922,12 @@
         <v>-8400688.025327178</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9803,14 +9961,12 @@
         <v>-8400688.025327178</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>8.27</v>
       </c>
-      <c r="J280" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,14 +10000,12 @@
         <v>-8423771.499227177</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>8.27</v>
       </c>
-      <c r="J281" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,14 +10039,12 @@
         <v>-8412191.499227177</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>8.06</v>
       </c>
-      <c r="J282" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9926,14 +10078,12 @@
         <v>-8412191.499227177</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>8.26</v>
       </c>
-      <c r="J283" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,12 +10117,12 @@
         <v>-8412191.499227177</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10006,12 +10156,12 @@
         <v>-8412191.499227177</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10045,12 +10195,12 @@
         <v>-8472646.482927177</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10084,14 +10234,12 @@
         <v>-8473790.461527176</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>8.25</v>
       </c>
-      <c r="J287" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10125,12 +10273,12 @@
         <v>-8531068.842127176</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10164,14 +10312,12 @@
         <v>-8680931.922427176</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>8.09</v>
       </c>
-      <c r="J289" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10205,12 +10351,12 @@
         <v>-8670931.922427176</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10244,14 +10390,12 @@
         <v>-8627678.455427175</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>7.93</v>
       </c>
-      <c r="J291" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10285,12 +10429,12 @@
         <v>-8727198.555727175</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10324,14 +10468,12 @@
         <v>-8727198.555727175</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="J293" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,14 +10507,12 @@
         <v>-8702653.340037456</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="J294" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10406,14 +10546,12 @@
         <v>-8702653.340037456</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>8.17</v>
       </c>
-      <c r="J295" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10447,14 +10585,12 @@
         <v>-8745635.796037456</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>8.17</v>
       </c>
-      <c r="J296" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10488,14 +10624,12 @@
         <v>-8772893.551737456</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>8.140000000000001</v>
       </c>
-      <c r="J297" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10529,14 +10663,12 @@
         <v>-9117217.701037455</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="J298" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,14 +10702,12 @@
         <v>-9124021.074937455</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>8.08</v>
       </c>
-      <c r="J299" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10611,14 +10741,12 @@
         <v>-9205833.792437455</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>7.92</v>
       </c>
-      <c r="J300" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,14 +10780,12 @@
         <v>-8908809.244637454</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>7.91</v>
       </c>
-      <c r="J301" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,14 +10819,12 @@
         <v>-8969088.042937454</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>8.06</v>
       </c>
-      <c r="J302" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10734,14 +10858,12 @@
         <v>-8990359.133937454</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>7.92</v>
       </c>
-      <c r="J303" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10775,14 +10897,12 @@
         <v>-9494118.805437453</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>7.91</v>
       </c>
-      <c r="J304" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10816,14 +10936,12 @@
         <v>-9493762.902737454</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>7.82</v>
       </c>
-      <c r="J305" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,14 +10975,12 @@
         <v>-9493762.902737454</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J306" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10898,14 +11014,12 @@
         <v>-9652998.753737453</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J307" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10939,14 +11053,12 @@
         <v>-9652998.753737453</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>7.89</v>
       </c>
-      <c r="J308" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,14 +11092,12 @@
         <v>-9641419.855537454</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>7.89</v>
       </c>
-      <c r="J309" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11021,14 +11131,12 @@
         <v>-9634819.855537454</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>7.9</v>
       </c>
-      <c r="J310" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11062,14 +11170,12 @@
         <v>-9633219.855537454</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>8</v>
       </c>
-      <c r="J311" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11103,14 +11209,12 @@
         <v>-9626686.649237454</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J312" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11144,14 +11248,12 @@
         <v>-9639918.823137455</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="J313" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11185,14 +11287,12 @@
         <v>-9624641.713237455</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J314" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11226,14 +11326,12 @@
         <v>-9932524.677337455</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>8.06</v>
       </c>
-      <c r="J315" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11267,14 +11365,12 @@
         <v>-9932083.068337455</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>8</v>
       </c>
-      <c r="J316" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11308,14 +11404,12 @@
         <v>-9934610.589937456</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="J317" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11349,14 +11443,12 @@
         <v>-9934610.589937456</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>8</v>
       </c>
-      <c r="J318" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11390,14 +11482,12 @@
         <v>-9934610.589937456</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>8</v>
       </c>
-      <c r="J319" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11431,14 +11521,12 @@
         <v>-9934610.589937456</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>8</v>
       </c>
-      <c r="J320" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11472,14 +11560,12 @@
         <v>-9837726.608537456</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>8</v>
       </c>
-      <c r="J321" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11513,14 +11599,12 @@
         <v>-9794858.692437457</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>8.06</v>
       </c>
-      <c r="J322" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11554,14 +11638,12 @@
         <v>-9547429.289037457</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>8.279999999999999</v>
       </c>
-      <c r="J323" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11595,14 +11677,12 @@
         <v>-9170617.681037456</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="J324" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11636,14 +11716,12 @@
         <v>-7144225.697837456</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>8.57</v>
       </c>
-      <c r="J325" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11677,14 +11755,12 @@
         <v>-5972809.540737456</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="J326" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11718,14 +11794,12 @@
         <v>-6069692.930337456</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="J327" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11759,14 +11833,10 @@
         <v>-6484934.795537456</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J328" t="n">
-        <v>8.039999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11803,9 +11873,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11842,9 +11910,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11881,9 +11947,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11920,9 +11984,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11959,9 +12021,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11998,9 +12058,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12037,9 +12095,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12076,9 +12132,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12115,9 +12169,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12154,9 +12206,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12193,9 +12243,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12232,9 +12280,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12271,9 +12317,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12310,9 +12354,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12349,9 +12391,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,9 +12428,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12427,9 +12465,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,9 +12502,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12505,9 +12539,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12544,9 +12576,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12583,9 +12613,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12622,9 +12650,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12661,9 +12687,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12700,9 +12724,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12739,9 +12761,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12778,9 +12798,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12817,9 +12835,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12856,9 +12872,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12895,9 +12909,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12934,9 +12946,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12973,9 +12983,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13012,9 +13020,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13051,9 +13057,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13090,9 +13094,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13129,9 +13131,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13168,9 +13168,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13204,154 +13202,164 @@
         <v>14821525.54637257</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>8.039999999999999</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>13</v>
+      </c>
+      <c r="C366" t="n">
+        <v>13</v>
+      </c>
+      <c r="D366" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E366" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F366" t="n">
+        <v>4752989.845851515</v>
+      </c>
+      <c r="G366" t="n">
+        <v>14821525.54637257</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C367" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D367" t="n">
+        <v>13</v>
+      </c>
+      <c r="E367" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F367" t="n">
+        <v>6994304.3888</v>
+      </c>
+      <c r="G367" t="n">
+        <v>7827221.157572574</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C368" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D368" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E368" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F368" t="n">
+        <v>10178910.768</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-2351689.610427425</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C369" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D369" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E369" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F369" t="n">
+        <v>10100816.07153333</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-12452505.68196075</v>
+      </c>
+      <c r="H369" t="n">
+        <v>2</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L365" t="n">
-        <v>1.611915422885572</v>
-      </c>
-      <c r="M365" t="n">
-        <v>1.14694894146949</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>13</v>
-      </c>
-      <c r="C366" t="n">
-        <v>13</v>
-      </c>
-      <c r="D366" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E366" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F366" t="n">
-        <v>4752989.845851515</v>
-      </c>
-      <c r="G366" t="n">
-        <v>14821525.54637257</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C367" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D367" t="n">
-        <v>13</v>
-      </c>
-      <c r="E367" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F367" t="n">
-        <v>6994304.3888</v>
-      </c>
-      <c r="G367" t="n">
-        <v>7827221.157572574</v>
-      </c>
-      <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C368" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D368" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E368" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F368" t="n">
-        <v>10178910.768</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-2351689.610427425</v>
-      </c>
-      <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C369" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D369" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E369" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F369" t="n">
-        <v>10100816.07153333</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-12452505.68196075</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
@@ -13377,7 +13385,7 @@
         <v>-7685643.094694087</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13410,7 +13418,7 @@
         <v>-4222993.265194087</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13443,7 +13451,7 @@
         <v>-8257421.664494088</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13476,7 +13484,7 @@
         <v>-14200878.16859492</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14268,7 +14276,7 @@
         <v>-9652403.168694602</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14301,7 +14309,7 @@
         <v>-9652403.168694602</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14334,7 +14342,7 @@
         <v>-9652403.168694602</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14367,7 +14375,7 @@
         <v>-9652403.168694602</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14400,7 +14408,7 @@
         <v>-9745170.832441559</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14433,7 +14441,7 @@
         <v>-9494025.414496731</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14466,7 +14474,7 @@
         <v>-9604377.190796731</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14499,7 +14507,7 @@
         <v>-9604377.190796731</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14532,7 +14540,7 @@
         <v>-9604377.190796731</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14565,7 +14573,7 @@
         <v>-8975330.17469673</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14598,7 +14606,7 @@
         <v>-9104762.75849673</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15819,7 +15827,7 @@
         <v>-10903054.92475383</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15852,7 +15860,7 @@
         <v>-10915365.87955383</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15885,7 +15893,7 @@
         <v>-10848247.17855383</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15918,7 +15926,7 @@
         <v>-10848247.17855383</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15951,7 +15959,7 @@
         <v>-12213116.91165383</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15984,7 +15992,7 @@
         <v>-12301040.12665383</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16017,7 +16025,7 @@
         <v>-12867830.92635383</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16644,7 +16652,7 @@
         <v>-12704361.86895383</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16677,7 +16685,7 @@
         <v>-13052782.31645383</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16710,7 +16718,7 @@
         <v>-13052782.31645383</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16743,7 +16751,7 @@
         <v>-12755334.17585383</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16776,7 +16784,7 @@
         <v>-12755334.17585383</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16809,7 +16817,7 @@
         <v>-11547569.53375383</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16842,7 +16850,7 @@
         <v>-12026570.98095383</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16875,7 +16883,7 @@
         <v>-12393467.26015383</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16908,7 +16916,7 @@
         <v>-11604475.12095383</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16941,7 +16949,7 @@
         <v>-11604475.12095383</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16974,7 +16982,7 @@
         <v>-11032127.88405383</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17007,7 +17015,7 @@
         <v>-11555320.50535383</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17040,7 +17048,7 @@
         <v>-11393706.39715383</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17073,7 +17081,7 @@
         <v>-11450522.14515383</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17106,7 +17114,7 @@
         <v>-11846141.08515383</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17139,7 +17147,7 @@
         <v>-11900585.97455383</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17172,7 +17180,7 @@
         <v>-11900585.97455383</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17205,7 +17213,7 @@
         <v>-11862860.65275383</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17238,7 +17246,7 @@
         <v>-11862860.65275383</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17271,7 +17279,7 @@
         <v>-11526667.67285383</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17304,7 +17312,7 @@
         <v>-11526667.67285383</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17337,7 +17345,7 @@
         <v>-11735866.95085383</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17370,7 +17378,7 @@
         <v>-11707226.05545383</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17403,7 +17411,7 @@
         <v>-11769854.53275383</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17436,7 +17444,7 @@
         <v>-9559254.788653832</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17469,7 +17477,7 @@
         <v>-9559254.788653832</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17502,7 +17510,7 @@
         <v>-9559254.788653832</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17535,7 +17543,7 @@
         <v>-9316505.336553833</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17568,7 +17576,7 @@
         <v>-9580565.648253832</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -20439,7 +20447,7 @@
         <v>-13133535.93612036</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20472,7 +20480,7 @@
         <v>-13133535.93612036</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20505,7 +20513,7 @@
         <v>-13311343.09602036</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20538,7 +20546,7 @@
         <v>-13432631.92272036</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21165,7 +21173,7 @@
         <v>-13920411.73312036</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21561,7 +21569,7 @@
         <v>-13826000.47802036</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22881,7 +22889,7 @@
         <v>-15086213.29202036</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22947,7 +22955,7 @@
         <v>-15073848.87002036</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -26819,6 +26827,6 @@
       <c r="M777" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest IOST.xlsx
+++ b/BackTest/2019-11-18 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7711,17 +7711,11 @@
         <v>-6978832.204527177</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>8.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7750,17 +7744,11 @@
         <v>-6978832.204527177</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7789,17 +7777,11 @@
         <v>-6978832.204527177</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7828,17 +7810,11 @@
         <v>-6978700.872627177</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7867,17 +7843,11 @@
         <v>-6978700.872627177</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>8.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7906,17 +7876,11 @@
         <v>-6938700.872627177</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>8.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7945,17 +7909,11 @@
         <v>-6993700.872627177</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>8.529999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7988,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8025,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8062,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8099,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8136,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8169,17 +8107,11 @@
         <v>-7098732.163627177</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>8.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8208,17 +8140,11 @@
         <v>-7114532.163627177</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>8.460000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8251,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8284,17 +8206,11 @@
         <v>-7126385.388227178</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>8.289999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8323,17 +8239,11 @@
         <v>-7137870.662827178</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>8.279999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8362,17 +8272,11 @@
         <v>-7137870.662827178</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>8.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8401,17 +8305,11 @@
         <v>-7144593.662827178</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>8.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8440,17 +8338,11 @@
         <v>-7140931.662827178</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>8.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8479,17 +8371,11 @@
         <v>-7181040.872927178</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>8.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8518,17 +8404,11 @@
         <v>-7181040.872927178</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>8.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8557,17 +8437,11 @@
         <v>-7116910.852527178</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>8.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8596,17 +8470,11 @@
         <v>-7117240.852527178</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>8.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8635,17 +8503,11 @@
         <v>-7117438.852527178</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>8.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8674,17 +8536,11 @@
         <v>-7117504.852527178</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>8.369999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8713,17 +8569,11 @@
         <v>-7117307.852527178</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>8.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8752,17 +8602,11 @@
         <v>-7346006.217727178</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>8.390000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8791,17 +8635,11 @@
         <v>-7326006.217727178</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>8.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8830,17 +8668,11 @@
         <v>-7326006.217727178</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>8.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8869,17 +8701,11 @@
         <v>-7883437.170527178</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>8.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8908,17 +8734,11 @@
         <v>-7898662.373727178</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>8.130000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8955,7 +8775,7 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -9766,11 +9586,9 @@
         <v>-8396112.290827177</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>8.359999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -9805,11 +9623,9 @@
         <v>-8398588.025327178</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>8.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -11755,11 +11571,9 @@
         <v>-5972809.540737456</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>8.720000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11794,11 +11608,9 @@
         <v>-6069692.930337456</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>8.970000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -13054,18 +12866,16 @@
         <v>21346993.4411926</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -13091,15 +12901,11 @@
         <v>28857095.4928926</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13128,15 +12934,11 @@
         <v>21002969.22135683</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13169,11 +12971,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13206,11 +13004,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13243,11 +13037,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13280,11 +13070,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13317,11 +13103,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13350,16 +13132,14 @@
         <v>-12452505.68196075</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
       <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
@@ -13484,7 +13264,7 @@
         <v>-14200878.16859492</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13946,7 +13726,7 @@
         <v>-10085851.0533946</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13979,7 +13759,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14012,7 +13792,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14045,7 +13825,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14078,7 +13858,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14111,7 +13891,7 @@
         <v>-10551848.8816946</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14144,7 +13924,7 @@
         <v>-10413445.2257946</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14177,7 +13957,7 @@
         <v>-10427023.5851946</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14210,7 +13990,7 @@
         <v>-10222893.0567946</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14243,7 +14023,7 @@
         <v>-10042478.2662946</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14276,7 +14056,7 @@
         <v>-9652403.168694602</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14309,7 +14089,7 @@
         <v>-9652403.168694602</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14342,7 +14122,7 @@
         <v>-9652403.168694602</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14375,7 +14155,7 @@
         <v>-9652403.168694602</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14408,7 +14188,7 @@
         <v>-9745170.832441559</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14441,7 +14221,7 @@
         <v>-9494025.414496731</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14474,7 +14254,7 @@
         <v>-9604377.190796731</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14507,7 +14287,7 @@
         <v>-9604377.190796731</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14540,7 +14320,7 @@
         <v>-9604377.190796731</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14573,7 +14353,7 @@
         <v>-8975330.17469673</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14606,7 +14386,7 @@
         <v>-9104762.75849673</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -25892,10 +25672,14 @@
         <v>-14239124.76356512</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J749" t="n">
+        <v>10.1</v>
+      </c>
       <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
@@ -25925,11 +25709,19 @@
         <v>-14486388.99276512</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J750" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25958,11 +25750,19 @@
         <v>-14486388.99276512</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>10</v>
+      </c>
+      <c r="J751" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25991,11 +25791,19 @@
         <v>-14953827.51886512</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>10</v>
+      </c>
+      <c r="J752" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26024,11 +25832,19 @@
         <v>-14718818.37986512</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="J753" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26057,11 +25873,19 @@
         <v>-14602393.55406512</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="J754" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26093,8 +25917,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26126,8 +25956,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26159,8 +25995,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26192,8 +26034,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26225,8 +26073,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26258,8 +26112,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26291,8 +26151,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26324,8 +26190,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26357,8 +26229,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26390,8 +26268,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26423,8 +26307,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26456,8 +26346,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26489,8 +26385,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26522,8 +26424,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26555,8 +26463,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26588,8 +26502,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26621,8 +26541,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26654,8 +26580,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26687,8 +26619,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26717,11 +26655,19 @@
         <v>-15966417.57665379</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="J774" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26750,11 +26696,19 @@
         <v>-15966417.57665379</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="J775" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26783,11 +26737,19 @@
         <v>-16135341.63145379</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="J776" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26816,17 +26778,25 @@
         <v>-16641518.35485379</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="J777" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
       <c r="M777" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest IOST.xlsx
+++ b/BackTest/2019-11-18 BackTest IOST.xlsx
@@ -9586,9 +9586,11 @@
         <v>-8396112.290827177</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>8.359999999999999</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -9623,9 +9625,11 @@
         <v>-8398588.025327178</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>8.24</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10050,11 +10054,9 @@
         <v>-8473790.461527176</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>8.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10089,11 +10091,9 @@
         <v>-8531068.842127176</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>8.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -11571,9 +11571,11 @@
         <v>-5972809.540737456</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>8.720000000000001</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12866,16 +12868,18 @@
         <v>21346993.4411926</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
       <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -12901,11 +12905,15 @@
         <v>28857095.4928926</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12934,11 +12942,15 @@
         <v>21002969.22135683</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12967,14 +12979,16 @@
         <v>25580892.97812106</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
@@ -13000,7 +13014,7 @@
         <v>14821525.54637257</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13033,7 +13047,7 @@
         <v>14821525.54637257</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13066,7 +13080,7 @@
         <v>7827221.157572574</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13099,7 +13113,7 @@
         <v>-2351689.610427425</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13726,7 +13740,7 @@
         <v>-10085851.0533946</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13759,7 +13773,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13792,7 +13806,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13825,7 +13839,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13858,7 +13872,7 @@
         <v>-10080245.8625946</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13891,7 +13905,7 @@
         <v>-10551848.8816946</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13924,7 +13938,7 @@
         <v>-10413445.2257946</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13957,7 +13971,7 @@
         <v>-10427023.5851946</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13990,7 +14004,7 @@
         <v>-10222893.0567946</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14023,7 +14037,7 @@
         <v>-10042478.2662946</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -25672,14 +25686,10 @@
         <v>-14239124.76356512</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J749" t="n">
-        <v>10.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
@@ -25709,19 +25719,11 @@
         <v>-14486388.99276512</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="J750" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25750,19 +25752,11 @@
         <v>-14486388.99276512</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>10</v>
-      </c>
-      <c r="J751" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25791,19 +25785,11 @@
         <v>-14953827.51886512</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>10</v>
-      </c>
-      <c r="J752" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25832,19 +25818,11 @@
         <v>-14718818.37986512</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="J753" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25873,19 +25851,11 @@
         <v>-14602393.55406512</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="J754" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25917,14 +25887,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25956,14 +25920,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25995,14 +25953,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26034,14 +25986,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26073,14 +26019,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26112,14 +26052,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26151,14 +26085,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26190,14 +26118,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26229,14 +26151,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26268,14 +26184,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26307,14 +26217,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26346,14 +26250,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26385,14 +26283,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26424,14 +26316,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26463,14 +26349,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26502,14 +26382,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26541,14 +26415,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26580,14 +26448,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26619,14 +26481,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26655,19 +26511,11 @@
         <v>-15966417.57665379</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J774" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26696,19 +26544,11 @@
         <v>-15966417.57665379</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="J775" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26737,19 +26577,11 @@
         <v>-16135341.63145379</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="J776" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26778,19 +26610,11 @@
         <v>-16641518.35485379</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="J777" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
